--- a/tests/example.xlsx
+++ b/tests/example.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\YandexDisk\python_projects\msPyExcelSQL\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E06D4-FC38-4A5D-BD4B-7F43CE763F93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF5D20-2B95-49E1-9EF6-DB91932C254E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESERVE_SHEET" sheetId="1" r:id="rId1"/>
     <sheet name="bands" sheetId="2" r:id="rId2"/>
     <sheet name="albums" sheetId="3" r:id="rId3"/>
     <sheet name="musicians" sheetId="4" r:id="rId4"/>
+    <sheet name="festivals" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -303,6 +304,39 @@
   </si>
   <si>
     <t>Huntington Park, California, US</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>wacken</t>
+  </si>
+  <si>
+    <t>helfest</t>
+  </si>
+  <si>
+    <t>copenhell</t>
+  </si>
+  <si>
+    <t>tuska</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Helsinki, Finland</t>
+  </si>
+  <si>
+    <t>Wacken, Germany</t>
+  </si>
+  <si>
+    <t>Copenhagen, Denmark</t>
+  </si>
+  <si>
+    <t>Clisson, France</t>
   </si>
 </sst>
 </file>
@@ -338,9 +372,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -623,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,6 +1392,18 @@
       <c r="K23">
         <v>1988</v>
       </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H24">
@@ -1371,6 +1418,18 @@
       <c r="K24">
         <v>1990</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="2">
+        <v>45138</v>
+      </c>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H25">
@@ -1385,6 +1444,18 @@
       <c r="K25">
         <v>1994</v>
       </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="2">
+        <v>45095</v>
+      </c>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H26">
@@ -1399,6 +1470,18 @@
       <c r="K26">
         <v>1996</v>
       </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="2">
+        <v>44727</v>
+      </c>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H27">
@@ -1412,6 +1495,18 @@
       </c>
       <c r="K27">
         <v>1998</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="2">
+        <v>44743</v>
       </c>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.25">
@@ -1690,7 +1785,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1900,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C10" sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,7 +2562,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,4 +2917,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16FA831-FC7A-4538-A309-B4337A294D85}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>